--- a/Input/IOTP/Year 2 Sem 2 IOTP Feedback Survey (Class A)(1-10).xlsx
+++ b/Input/IOTP/Year 2 Sem 2 IOTP Feedback Survey (Class A)(1-10).xlsx
@@ -1473,7 +1473,7 @@
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R48bd3398203b449d"/>
+    <x:tablePart r:id="R5040d9c1292d491f"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/Input/IOTP/Year 2 Sem 2 IOTP Feedback Survey (Class A)(1-10).xlsx
+++ b/Input/IOTP/Year 2 Sem 2 IOTP Feedback Survey (Class A)(1-10).xlsx
@@ -1473,7 +1473,7 @@
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R5040d9c1292d491f"/>
+    <x:tablePart r:id="R59ba46bb58974b0b"/>
   </x:tableParts>
 </x:worksheet>
 </file>